--- a/Watson-data.xlsx
+++ b/Watson-data.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nina_sysoeva\Desktop\personality_insights_ibm_watson-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personality_insights_ibm_watson\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9354"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="292">
   <si>
     <t>Symbol</t>
   </si>
@@ -57,15 +57,24 @@
     <t>Intellect</t>
   </si>
   <si>
+    <t>Authority-challenging</t>
+  </si>
+  <si>
     <t>Adventurousness</t>
   </si>
   <si>
+    <t>Artistic interests</t>
+  </si>
+  <si>
     <t>Emotionality</t>
   </si>
   <si>
     <t>Imagination</t>
   </si>
   <si>
+    <t>Emotional range</t>
+  </si>
+  <si>
     <t>Self-consciousness</t>
   </si>
   <si>
@@ -75,7 +84,7 @@
     <t>Susceptible to stress</t>
   </si>
   <si>
-    <t>Impulsiveness</t>
+    <t>Immoderation</t>
   </si>
   <si>
     <t>Prone to worry</t>
@@ -105,7 +114,7 @@
     <t>Orderliness</t>
   </si>
   <si>
-    <t>Introversion/Extraversion</t>
+    <t>Extraversion</t>
   </si>
   <si>
     <t>Activity level</t>
@@ -126,7 +135,7 @@
     <t>Excitement-seeking</t>
   </si>
   <si>
-    <t>Agreebleness</t>
+    <t>Agreeableness</t>
   </si>
   <si>
     <t>Cooperation</t>
@@ -135,7 +144,7 @@
     <t>Uncompromising</t>
   </si>
   <si>
-    <t>Symphaty</t>
+    <t>Sympathy</t>
   </si>
   <si>
     <t>Trust</t>
@@ -183,6 +192,24 @@
     <t>Excitement</t>
   </si>
   <si>
+    <t>Openness to change</t>
+  </si>
+  <si>
+    <t>Self-enhancement</t>
+  </si>
+  <si>
+    <t>Conservation</t>
+  </si>
+  <si>
+    <t>Self-transcendence</t>
+  </si>
+  <si>
+    <t>Hedonism</t>
+  </si>
+  <si>
+    <t>Hedonism = Taking pleasure in life</t>
+  </si>
+  <si>
     <t>AMZN</t>
   </si>
   <si>
@@ -202,6 +229,9 @@
   </si>
   <si>
     <t>You are excitable, particular and active. You are deliberate: you carefully think through decisions before making them. You are philosophical: you are open to and intrigued by new ideas and love to explore them. And you are mild-tempered: it takes a lot to get you angry. Your choices are driven by a desire for discovery. You are relatively unconcerned with both taking pleasure in life and tradition. You prefer activities with a purpose greater than just personal enjoyment. And you care more about making your own path than following what others have done.</t>
+  </si>
+  <si>
+    <t>Self-enhancement = Achievemnt</t>
   </si>
   <si>
     <t>You are analytical, particular and can be perceived as critical. You are calm-seeking: you prefer activities that are quiet, calm, and safe. You are deliberate: you carefully think through decisions before making them. And you are empathetic: you feel what others feel and are compassionate towards them. You are motivated to seek out experiences that provide a strong feeling of discovery. You are relatively unconcerned with both taking pleasure in life and achieving success. You prefer activities with a purpose greater than just personal enjoyment. And you make decisions with little regard for how they show off your talents.</t>
@@ -209,6 +239,9 @@
   <si>
     <t>You are analytical and particular.
 You are deliberate: you carefully think through decisions before making them. You are mild-tempered: it takes a lot to get you angry. And you are philosophical: you are open to and intrigued by new ideas and love to explore them. Experiences that give a sense of discovery hold some appeal to you. You are relatively unconcerned with both taking pleasure in life and tradition. You prefer activities with a purpose greater than just personal enjoyment. And you care more about making your own path than following what others have done.</t>
+  </si>
+  <si>
+    <t>Openness to change = Simulation</t>
   </si>
   <si>
     <t>You are excitable and explosive.
@@ -223,6 +256,9 @@
 You are relatively unconcerned with both tradition and helping others. You care more about making your own path than following what others have done. And you think people can handle their own business without interference.</t>
   </si>
   <si>
+    <t>Conservation = Helping others</t>
+  </si>
+  <si>
     <t>You are excitable and particular.
 You are mild-tempered: it takes a lot to get you angry. You are deliberate: you carefully think through decisions before making them. And you are calm-seeking: you prefer activities that are quiet, calm, and safe.
 Experiences that give a sense of organization hold some appeal to you.
@@ -235,6 +271,9 @@
 You are relatively unconcerned with both taking pleasure in life and tradition. You prefer activities with a purpose greater than just personal enjoyment. And you care more about making your own path than following what others have done.</t>
   </si>
   <si>
+    <t>Self-transcendence - Tradition</t>
+  </si>
+  <si>
     <t>Brian Olsavsky</t>
   </si>
   <si>
@@ -244,6 +283,12 @@
 You are relatively unconcerned with both taking pleasure in life and tradition. You prefer activities with a purpose greater than just personal enjoyment. And you care more about making your own path than following what others have done.</t>
   </si>
   <si>
+    <t>Extraversion=Extraversion/Introversion</t>
+  </si>
+  <si>
+    <t>Immoderation=Impulsiveness</t>
+  </si>
+  <si>
     <t>AAL</t>
   </si>
   <si>
@@ -866,51 +911,12 @@
   </si>
   <si>
     <t>Dentsply Sirona Inc</t>
-  </si>
-  <si>
-    <t>Hedonism = Taking pleasure in life</t>
-  </si>
-  <si>
-    <t>Hedonism</t>
-  </si>
-  <si>
-    <t>Self-enhancement = Achievemnt</t>
-  </si>
-  <si>
-    <t>Self-enhancement</t>
-  </si>
-  <si>
-    <t>Openness to change = Simulation</t>
-  </si>
-  <si>
-    <t>Openness to change</t>
-  </si>
-  <si>
-    <t>Conservation = Helping others</t>
-  </si>
-  <si>
-    <t>Conservation</t>
-  </si>
-  <si>
-    <t>Self-transcendence - Tradition</t>
-  </si>
-  <si>
-    <t>Self-transcendence</t>
-  </si>
-  <si>
-    <t>Authority-challenging</t>
-  </si>
-  <si>
-    <t>Artistic interests</t>
-  </si>
-  <si>
-    <t>Emotional range</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -976,7 +982,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -987,9 +993,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1273,35 +1279,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP7" sqref="BP7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26171875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7265625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="8.7265625" style="2" customWidth="1"/>
-    <col min="33" max="35" width="8.7265625" style="4" customWidth="1"/>
-    <col min="36" max="38" width="9.1796875" style="4" customWidth="1"/>
-    <col min="39" max="39" width="8.7265625" style="2" customWidth="1"/>
-    <col min="45" max="45" width="9.1796875" style="3" customWidth="1"/>
-    <col min="51" max="51" width="9.1796875" style="4" customWidth="1"/>
-    <col min="57" max="57" width="9.1796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.7890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.3671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.734375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.734375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="8.734375" style="2" customWidth="1"/>
+    <col min="33" max="35" width="8.734375" style="4" customWidth="1"/>
+    <col min="36" max="38" width="9.15625" style="4" customWidth="1"/>
+    <col min="39" max="39" width="8.734375" style="2" customWidth="1"/>
+    <col min="45" max="45" width="9.15625" style="3" customWidth="1"/>
+    <col min="51" max="51" width="9.15625" style="4" customWidth="1"/>
+    <col min="57" max="57" width="9.15625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,165 +1345,165 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>282</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>286</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="BN1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>2008</v>
@@ -1506,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1">
         <v>29012009</v>
@@ -1521,7 +1527,7 @@
         <v>1473</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2">
         <v>99</v>
@@ -1680,12 +1686,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>2008</v>
@@ -1694,10 +1700,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1">
         <v>29012009</v>
@@ -1709,7 +1715,7 @@
         <v>758</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K3" s="2">
         <v>100</v>
@@ -1868,15 +1874,15 @@
         <v>1</v>
       </c>
       <c r="BN3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>2009</v>
@@ -1885,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1">
         <v>28012010</v>
@@ -1900,7 +1906,7 @@
         <v>1640</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2">
         <v>100</v>
@@ -2059,12 +2065,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>2010</v>
@@ -2073,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1">
         <v>27012011</v>
@@ -2088,7 +2094,7 @@
         <v>3296</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2">
         <v>98</v>
@@ -2247,15 +2253,15 @@
         <v>2</v>
       </c>
       <c r="BN5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>2011</v>
@@ -2264,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1">
         <v>31012012</v>
@@ -2279,7 +2285,7 @@
         <v>2678</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2">
         <v>99</v>
@@ -2438,12 +2444,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>2012</v>
@@ -2452,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1">
         <v>29012013</v>
@@ -2467,7 +2473,7 @@
         <v>2032</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2">
         <v>98</v>
@@ -2626,15 +2632,15 @@
         <v>2</v>
       </c>
       <c r="BN7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>2013</v>
@@ -2643,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1">
         <v>30012014</v>
@@ -2658,7 +2664,7 @@
         <v>2943</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2">
         <v>97</v>
@@ -2817,12 +2823,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>2014</v>
@@ -2831,10 +2837,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G9" s="1">
         <v>29012015</v>
@@ -2846,7 +2852,7 @@
         <v>2801</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K9" s="2">
         <v>99</v>
@@ -3005,15 +3011,15 @@
         <v>2</v>
       </c>
       <c r="BN9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>2015</v>
@@ -3022,10 +3028,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1">
         <v>28012016</v>
@@ -3037,7 +3043,7 @@
         <v>2680</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K10" s="2">
         <v>97</v>
@@ -3195,18 +3201,24 @@
       <c r="BJ10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BN10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BN11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3371,77 +3383,350 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>2653</v>
+      </c>
+      <c r="K13" s="7">
+        <v>96.8260901812302</v>
+      </c>
+      <c r="L13" s="3">
+        <v>97.528636019072906</v>
+      </c>
+      <c r="M13" s="3">
+        <v>92.938262992278453</v>
+      </c>
+      <c r="N13" s="3">
+        <v>90.153789697271037</v>
+      </c>
+      <c r="O13" s="3">
+        <v>59.506332572418088</v>
+      </c>
+      <c r="P13" s="3">
+        <v>14.6334838472113</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>2.4792520077943689</v>
+      </c>
+      <c r="R13" s="3">
+        <v>93.66368389828348</v>
+      </c>
+      <c r="S13" s="3">
+        <v>7.5004958099410768</v>
+      </c>
+      <c r="T13" s="3">
+        <v>14.91848820989652</v>
+      </c>
+      <c r="U13" s="3">
+        <v>6.8024423070864044</v>
+      </c>
+      <c r="V13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>2.9079553995418781</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1.243695858031119</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>86.900183182529432</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>98.79375379001101</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>91.136843477790393</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>86.76817059043762</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>84.822299296306468</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>66.363479815312928</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>34.027749025807111</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>83.980528334716851</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>98.092121474630133</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>96.10846443932104</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>88.787348345447768</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>39.506222832205871</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>33.433436993784063</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>1.557678027182019</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>18.86942344971127</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>94.358984671311077</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>67.281551182764744</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>95.874261832392577</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>96.690476078436333</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>84.677729689678614</v>
+      </c>
+      <c r="AS13">
+        <v>33.750639912255011</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>21.25786321441694</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>39.79258686579211</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>2.841556262550438</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>5.5189818208056689</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>3.8641713675305498</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>11.650737857203421</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>8.058749554433037</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>3.03093786294597</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>4.7878119496941709</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>2.8460415325129329</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>0.50567406617995081</v>
+      </c>
+      <c r="BE13">
+        <v>2.9892327957593392</v>
+      </c>
+      <c r="BF13">
+        <v>36.059207299374258</v>
+      </c>
+      <c r="BG13">
+        <v>4.2513092382027828</v>
+      </c>
+      <c r="BH13">
+        <v>2.5689676749970189</v>
+      </c>
+      <c r="BI13">
+        <v>3.3174508324224421</v>
+      </c>
+      <c r="BJ13">
+        <v>1.068474409110703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>2653</v>
+      </c>
+      <c r="K14">
+        <v>96.8260901812302</v>
+      </c>
+      <c r="L14">
+        <v>97.528636019072906</v>
+      </c>
+      <c r="M14">
+        <v>92.938262992278453</v>
+      </c>
+      <c r="N14">
+        <v>90.153789697271037</v>
+      </c>
+      <c r="O14">
+        <v>59.506332572418088</v>
+      </c>
+      <c r="P14">
+        <v>14.6334838472113</v>
+      </c>
+      <c r="Q14">
+        <v>2.4792520077943689</v>
+      </c>
+      <c r="R14">
+        <v>93.66368389828348</v>
+      </c>
+      <c r="S14">
+        <v>7.5004958099410768</v>
+      </c>
+      <c r="T14">
+        <v>14.91848820989652</v>
+      </c>
+      <c r="U14">
+        <v>6.8024423070864044</v>
+      </c>
+      <c r="V14">
+        <v>3.1421556471662231</v>
+      </c>
+      <c r="W14">
+        <v>2.9079553995418781</v>
+      </c>
+      <c r="X14">
+        <v>1.243695858031119</v>
+      </c>
+      <c r="Y14">
+        <v>86.900183182529432</v>
+      </c>
+      <c r="Z14">
+        <v>98.79375379001101</v>
+      </c>
+      <c r="AA14">
+        <v>91.136843477790393</v>
+      </c>
+      <c r="AB14">
+        <v>86.76817059043762</v>
+      </c>
+      <c r="AC14">
+        <v>84.822299296306468</v>
+      </c>
+      <c r="AD14">
+        <v>66.363479815312928</v>
+      </c>
+      <c r="AE14">
+        <v>34.027749025807111</v>
+      </c>
+      <c r="AF14">
+        <v>83.980528334716851</v>
+      </c>
+      <c r="AG14">
+        <v>98.092121474630133</v>
+      </c>
+      <c r="AH14">
+        <v>96.10846443932104</v>
+      </c>
+      <c r="AI14">
+        <v>88.787348345447768</v>
+      </c>
+      <c r="AJ14">
+        <v>39.506222832205871</v>
+      </c>
+      <c r="AK14">
+        <v>33.433436993784063</v>
+      </c>
+      <c r="AL14">
+        <v>1.557678027182019</v>
+      </c>
+      <c r="AM14">
+        <v>18.86942344971127</v>
+      </c>
+      <c r="AN14">
+        <v>94.358984671311077</v>
+      </c>
+      <c r="AO14">
+        <v>67.281551182764744</v>
+      </c>
+      <c r="AP14">
+        <v>95.874261832392577</v>
+      </c>
+      <c r="AQ14">
+        <v>96.690476078436333</v>
+      </c>
+      <c r="AR14">
+        <v>84.677729689678614</v>
+      </c>
+      <c r="AS14">
+        <v>33.750639912255011</v>
+      </c>
+      <c r="AT14">
+        <v>21.25786321441694</v>
+      </c>
+      <c r="AU14">
+        <v>39.79258686579211</v>
+      </c>
+      <c r="AV14">
+        <v>2.841556262550438</v>
+      </c>
+      <c r="AW14">
+        <v>5.5189818208056689</v>
+      </c>
+      <c r="AX14">
+        <v>3.8641713675305498</v>
+      </c>
+      <c r="AY14">
+        <v>11.650737857203421</v>
+      </c>
+      <c r="AZ14">
+        <v>8.058749554433037</v>
+      </c>
+      <c r="BA14">
+        <v>3.03093786294597</v>
+      </c>
+      <c r="BB14">
+        <v>4.7878119496941709</v>
+      </c>
+      <c r="BC14">
+        <v>2.8460415325129329</v>
+      </c>
+      <c r="BD14">
+        <v>0.50567406617995081</v>
+      </c>
+      <c r="BE14">
+        <v>2.9892327957593392</v>
+      </c>
+      <c r="BF14">
+        <v>36.059207299374258</v>
+      </c>
+      <c r="BG14">
+        <v>4.2513092382027828</v>
+      </c>
+      <c r="BH14">
+        <v>2.5689676749970189</v>
+      </c>
+      <c r="BI14">
+        <v>3.3174508324224421</v>
+      </c>
+      <c r="BJ14">
+        <v>1.068474409110703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I19">
         <v>150</v>
@@ -3451,415 +3736,574 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I20">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J21">
         <f>+J19/I20</f>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="I45">
+        <v>2653</v>
+      </c>
+      <c r="K45">
+        <v>96.8260901812302</v>
+      </c>
+      <c r="L45">
+        <v>97.528636019072906</v>
+      </c>
+      <c r="M45">
+        <v>92.938262992278453</v>
+      </c>
+      <c r="N45">
+        <v>90.153789697271037</v>
+      </c>
+      <c r="O45">
+        <v>59.506332572418088</v>
+      </c>
+      <c r="P45">
+        <v>14.6334838472113</v>
+      </c>
+      <c r="Q45">
+        <v>2.4792520077943689</v>
+      </c>
+      <c r="R45">
+        <v>93.66368389828348</v>
+      </c>
+      <c r="S45">
+        <v>7.5004958099410768</v>
+      </c>
+      <c r="T45">
+        <v>14.91848820989652</v>
+      </c>
+      <c r="U45">
+        <v>6.8024423070864044</v>
+      </c>
+      <c r="V45">
+        <v>-1</v>
+      </c>
+      <c r="W45">
+        <v>2.9079553995418781</v>
+      </c>
+      <c r="X45">
+        <v>1.243695858031119</v>
+      </c>
+      <c r="Y45">
+        <v>86.900183182529432</v>
+      </c>
+      <c r="Z45">
+        <v>98.79375379001101</v>
+      </c>
+      <c r="AA45">
+        <v>91.136843477790393</v>
+      </c>
+      <c r="AB45">
+        <v>86.76817059043762</v>
+      </c>
+      <c r="AC45">
+        <v>84.822299296306468</v>
+      </c>
+      <c r="AD45">
+        <v>66.363479815312928</v>
+      </c>
+      <c r="AE45">
+        <v>34.027749025807111</v>
+      </c>
+      <c r="AF45">
+        <v>-1</v>
+      </c>
+      <c r="AG45">
+        <v>98.092121474630133</v>
+      </c>
+      <c r="AH45">
+        <v>96.10846443932104</v>
+      </c>
+      <c r="AI45">
+        <v>88.787348345447768</v>
+      </c>
+      <c r="AJ45">
+        <v>39.506222832205871</v>
+      </c>
+      <c r="AK45">
+        <v>33.433436993784063</v>
+      </c>
+      <c r="AL45">
+        <v>1.557678027182019</v>
+      </c>
+      <c r="AM45">
+        <v>18.86942344971127</v>
+      </c>
+      <c r="AN45">
+        <v>94.358984671311077</v>
+      </c>
+      <c r="AO45">
+        <v>67.281551182764744</v>
+      </c>
+      <c r="AP45">
+        <v>95.874261832392577</v>
+      </c>
+      <c r="AQ45">
+        <v>96.690476078436333</v>
+      </c>
+      <c r="AR45">
+        <v>84.677729689678614</v>
+      </c>
+      <c r="AS45">
+        <v>33.750639912255011</v>
+      </c>
+      <c r="AT45">
+        <v>21.25786321441694</v>
+      </c>
+      <c r="AU45">
+        <v>39.79258686579211</v>
+      </c>
+      <c r="AV45">
+        <v>2.841556262550438</v>
+      </c>
+      <c r="AW45">
+        <v>5.5189818208056689</v>
+      </c>
+      <c r="AX45">
+        <v>3.8641713675305498</v>
+      </c>
+      <c r="AY45">
+        <v>11.650737857203421</v>
+      </c>
+      <c r="AZ45">
+        <v>8.058749554433037</v>
+      </c>
+      <c r="BA45">
+        <v>3.03093786294597</v>
+      </c>
+      <c r="BB45">
+        <v>4.7878119496941709</v>
+      </c>
+      <c r="BC45">
+        <v>2.8460415325129329</v>
+      </c>
+      <c r="BD45">
+        <v>0.50567406617995081</v>
+      </c>
+      <c r="BE45">
+        <v>2.9892327957593392</v>
+      </c>
+      <c r="BF45">
+        <v>36.059207299374258</v>
+      </c>
+      <c r="BG45">
+        <v>4.2513092382027828</v>
+      </c>
+      <c r="BH45">
+        <v>2.5689676749970189</v>
+      </c>
+      <c r="BI45">
+        <v>3.3174508324224421</v>
+      </c>
+      <c r="BJ45">
+        <v>1.068474409110703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3867,436 +4311,436 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>237</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" t="s">
         <v>198</v>
       </c>
-      <c r="B84" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>200</v>
-      </c>
-      <c r="B85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>202</v>
-      </c>
-      <c r="B86" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>204</v>
-      </c>
-      <c r="B87" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>206</v>
-      </c>
-      <c r="B88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>208</v>
-      </c>
-      <c r="B89" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>210</v>
-      </c>
-      <c r="B90" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>214</v>
-      </c>
-      <c r="B92" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>216</v>
-      </c>
-      <c r="B93" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>218</v>
-      </c>
-      <c r="B94" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>220</v>
-      </c>
-      <c r="B95" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>222</v>
-      </c>
-      <c r="B96" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>224</v>
-      </c>
-      <c r="B97" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>226</v>
-      </c>
-      <c r="B98" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B99" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B114" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B118" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B119" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/Watson-data.xlsx
+++ b/Watson-data.xlsx
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP7" sqref="BP7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3715,6 +3715,165 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="I15">
+        <v>2653</v>
+      </c>
+      <c r="K15">
+        <v>97</v>
+      </c>
+      <c r="L15">
+        <v>98</v>
+      </c>
+      <c r="M15">
+        <v>93</v>
+      </c>
+      <c r="N15">
+        <v>90</v>
+      </c>
+      <c r="O15">
+        <v>60</v>
+      </c>
+      <c r="P15">
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>94</v>
+      </c>
+      <c r="S15">
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <v>15</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>87</v>
+      </c>
+      <c r="Z15">
+        <v>99</v>
+      </c>
+      <c r="AA15">
+        <v>91</v>
+      </c>
+      <c r="AB15">
+        <v>87</v>
+      </c>
+      <c r="AC15">
+        <v>85</v>
+      </c>
+      <c r="AD15">
+        <v>66</v>
+      </c>
+      <c r="AE15">
+        <v>34</v>
+      </c>
+      <c r="AF15">
+        <v>84</v>
+      </c>
+      <c r="AG15">
+        <v>98</v>
+      </c>
+      <c r="AH15">
+        <v>96</v>
+      </c>
+      <c r="AI15">
+        <v>89</v>
+      </c>
+      <c r="AJ15">
+        <v>40</v>
+      </c>
+      <c r="AK15">
+        <v>33</v>
+      </c>
+      <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <v>19</v>
+      </c>
+      <c r="AN15">
+        <v>94</v>
+      </c>
+      <c r="AO15">
+        <v>67</v>
+      </c>
+      <c r="AP15">
+        <v>96</v>
+      </c>
+      <c r="AQ15">
+        <v>97</v>
+      </c>
+      <c r="AR15">
+        <v>85</v>
+      </c>
+      <c r="AS15">
+        <v>34</v>
+      </c>
+      <c r="AT15">
+        <v>21</v>
+      </c>
+      <c r="AU15">
+        <v>40</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+      <c r="AW15">
+        <v>6</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>12</v>
+      </c>
+      <c r="AZ15">
+        <v>8</v>
+      </c>
+      <c r="BA15">
+        <v>3</v>
+      </c>
+      <c r="BB15">
+        <v>5</v>
+      </c>
+      <c r="BC15">
+        <v>3</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>3</v>
+      </c>
+      <c r="BF15">
+        <v>36</v>
+      </c>
+      <c r="BG15">
+        <v>4</v>
+      </c>
+      <c r="BH15">
+        <v>3</v>
+      </c>
+      <c r="BI15">
+        <v>3</v>
+      </c>
+      <c r="BJ15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="1"/>
